--- a/storage/app/xlsx/seed_cidades_sc.xlsx
+++ b/storage/app/xlsx/seed_cidades_sc.xlsx
@@ -23,7 +23,7 @@
     <t>ABDONENSE</t>
   </si>
   <si>
-    <t>be40fd21-82e6-4efb-9721-e179a0a79239</t>
+    <t>3e835d23-d290-4d67-a9be-e30c0b517bec</t>
   </si>
   <si>
     <t>ABELARDO LUZ</t>

--- a/storage/app/xlsx/seed_cidades_sc.xlsx
+++ b/storage/app/xlsx/seed_cidades_sc.xlsx
@@ -23,7 +23,7 @@
     <t>ABDONENSE</t>
   </si>
   <si>
-    <t>3e835d23-d290-4d67-a9be-e30c0b517bec</t>
+    <t>24c3dadb-9cd5-485e-a3cb-7596c3c1fce4</t>
   </si>
   <si>
     <t>ABELARDO LUZ</t>

--- a/storage/app/xlsx/seed_cidades_sc.xlsx
+++ b/storage/app/xlsx/seed_cidades_sc.xlsx
@@ -23,7 +23,7 @@
     <t>ABDONENSE</t>
   </si>
   <si>
-    <t>24c3dadb-9cd5-485e-a3cb-7596c3c1fce4</t>
+    <t>c2298a6f-5b1b-420e-9152-6589faba40d9</t>
   </si>
   <si>
     <t>ABELARDO LUZ</t>

--- a/storage/app/xlsx/seed_cidades_sc.xlsx
+++ b/storage/app/xlsx/seed_cidades_sc.xlsx
@@ -23,7 +23,7 @@
     <t>ABDONENSE</t>
   </si>
   <si>
-    <t>c2298a6f-5b1b-420e-9152-6589faba40d9</t>
+    <t>347fe2b9-2716-4161-b3aa-5df919f376e3</t>
   </si>
   <si>
     <t>ABELARDO LUZ</t>

--- a/storage/app/xlsx/seed_cidades_sc.xlsx
+++ b/storage/app/xlsx/seed_cidades_sc.xlsx
@@ -23,7 +23,7 @@
     <t>ABDONENSE</t>
   </si>
   <si>
-    <t>347fe2b9-2716-4161-b3aa-5df919f376e3</t>
+    <t>5c9dda54-df8f-4889-9f35-8fc33a1403fb</t>
   </si>
   <si>
     <t>ABELARDO LUZ</t>

--- a/storage/app/xlsx/seed_cidades_sc.xlsx
+++ b/storage/app/xlsx/seed_cidades_sc.xlsx
@@ -23,7 +23,7 @@
     <t>ABDONENSE</t>
   </si>
   <si>
-    <t>5c9dda54-df8f-4889-9f35-8fc33a1403fb</t>
+    <t>3d98958a-5d93-4cc7-b247-e6dfed6030f1</t>
   </si>
   <si>
     <t>ABELARDO LUZ</t>
